--- a/registration_status.xlsx
+++ b/registration_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gamba/Code/ua-refugees-ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F833F-710E-4A42-A8B1-8AAA67B4EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FF38D-3C31-3F4A-8BB4-78411BDD3427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{A3D3D9B9-1222-064C-8C08-4268FE22CEC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1501529689269149701</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>data not available</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1511296502471266304</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1510950303587352584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approx. throughput time </t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -239,6 +248,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF066A-2E45-AC43-B3AB-0F1423AB1715}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -567,14 +587,15 @@
     <col min="4" max="4" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="20.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="61.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
@@ -594,16 +615,19 @@
         <v>35</v>
       </c>
       <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -613,17 +637,18 @@
       <c r="C2" s="1">
         <v>1341</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="13"/>
+      <c r="H2" s="1">
         <v>999</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>315</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -637,17 +662,18 @@
         <f>C3-C2</f>
         <v>283</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="13"/>
+      <c r="H3" s="1">
         <v>1145</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>479</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>25</v>
       </c>
@@ -661,17 +687,18 @@
         <f t="shared" ref="D4:D12" si="0">C4-C3</f>
         <v>487</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="13"/>
+      <c r="H4" s="1">
         <v>1415</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>696</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -687,17 +714,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="G5" s="14"/>
+      <c r="H5" s="3">
         <v>1643</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>832</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -713,18 +741,19 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="G6" s="14"/>
+      <c r="H6" s="3">
         <v>2011</v>
       </c>
-      <c r="H6" s="3">
-        <f>C6-G6</f>
+      <c r="I6" s="3">
+        <f>C6-H6</f>
         <v>1106</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -738,18 +767,19 @@
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="13"/>
+      <c r="H7" s="1">
         <v>2281</v>
       </c>
-      <c r="H7" s="1">
-        <f>C7-G7</f>
+      <c r="I7" s="1">
+        <f>C7-H7</f>
         <v>1562</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -763,18 +793,19 @@
         <f t="shared" si="0"/>
         <v>1368</v>
       </c>
-      <c r="G8" s="1">
-        <f>C8-H8</f>
+      <c r="G8" s="13"/>
+      <c r="H8" s="1">
+        <f>C8-I8</f>
         <v>3090</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2121</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
@@ -788,18 +819,19 @@
         <f t="shared" si="0"/>
         <v>1271</v>
       </c>
-      <c r="G9" s="1">
-        <f>C9-H9</f>
+      <c r="G9" s="13"/>
+      <c r="H9" s="1">
+        <f>C9-I9</f>
         <v>3642</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>2840</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -813,18 +845,19 @@
         <f t="shared" si="0"/>
         <v>1421</v>
       </c>
-      <c r="G10" s="1">
-        <f>C10-H10</f>
+      <c r="G10" s="13"/>
+      <c r="H10" s="1">
+        <f>C10-I10</f>
         <v>4239</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>3664</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
@@ -838,18 +871,19 @@
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="G11" s="1">
-        <f>C11-H11</f>
+      <c r="G11" s="13"/>
+      <c r="H11" s="1">
+        <f>C11-I11</f>
         <v>4973</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>4086</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -865,18 +899,19 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <f>C12-H12</f>
+      <c r="G12" s="14"/>
+      <c r="H12" s="3">
+        <f>C12-I12</f>
         <v>5409</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4417</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -891,13 +926,14 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -914,18 +950,22 @@
       <c r="E14" s="1">
         <v>2895</v>
       </c>
-      <c r="G14" s="1">
-        <f>C14-H14</f>
+      <c r="G14" s="13">
+        <f>B14-B6</f>
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <f>C14-I14</f>
         <v>6915</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>4106</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -946,11 +986,15 @@
         <f>E15-E14</f>
         <v>1623</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="13">
+        <f>B15-B8</f>
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
@@ -971,11 +1015,15 @@
         <f t="shared" ref="F16:F22" si="2">E16-E15</f>
         <v>1677</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="G16" s="13">
+        <f>B16-B10</f>
+        <v>6</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>26</v>
       </c>
@@ -996,11 +1044,15 @@
         <f t="shared" si="2"/>
         <v>1427</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="G17" s="13">
+        <f>B17-B10</f>
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
@@ -1021,11 +1073,15 @@
         <f t="shared" si="2"/>
         <v>1269</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="13">
+        <f>B18-B11</f>
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1046,13 +1102,17 @@
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="14">
+        <f>B19-B12</f>
+        <v>7</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1073,13 +1133,17 @@
         <f t="shared" si="2"/>
         <v>347</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="14">
+        <f>B20-B14</f>
+        <v>6</v>
+      </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -1100,11 +1164,15 @@
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="13">
+        <f>B21-B14</f>
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -1125,11 +1193,15 @@
         <f t="shared" si="2"/>
         <v>744</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="13">
+        <f>B22-B15</f>
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
@@ -1150,11 +1222,15 @@
         <f>E23-E22</f>
         <v>731</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="13">
+        <f>B23-B16</f>
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>26</v>
       </c>
@@ -1175,11 +1251,15 @@
         <f>E24-E23</f>
         <v>1535</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="13">
+        <f>B24-B17</f>
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1200,11 +1280,15 @@
         <f>E25-E24</f>
         <v>1745</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="G25" s="13">
+        <f>B25-B19</f>
+        <v>6</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -1223,13 +1307,14 @@
       <c r="F26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
@@ -1250,10 +1335,72 @@
         <f>E27-E25</f>
         <v>1608</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="14">
+        <f>B27-B21</f>
+        <v>6</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11">
+        <v>44655</v>
+      </c>
+      <c r="C28" s="12">
+        <v>24064</v>
+      </c>
+      <c r="D28" s="12">
+        <f>C28-C27</f>
+        <v>1111</v>
+      </c>
+      <c r="E28" s="12">
+        <v>17236</v>
+      </c>
+      <c r="F28" s="12">
+        <f>E28-E27</f>
+        <v>436</v>
+      </c>
+      <c r="G28" s="16">
+        <f>B28-B22</f>
+        <v>6</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11">
+        <v>44656</v>
+      </c>
+      <c r="C29" s="12">
+        <v>24837</v>
+      </c>
+      <c r="D29" s="12">
+        <f>C29-C28</f>
+        <v>773</v>
+      </c>
+      <c r="E29" s="12">
+        <v>18149</v>
+      </c>
+      <c r="F29" s="12">
+        <f>E29-E28</f>
+        <v>913</v>
+      </c>
+      <c r="G29" s="16">
+        <f>B29-B22</f>
+        <v>7</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/registration_status.xlsx
+++ b/registration_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gamba/Code/ua-refugees-ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FF38D-3C31-3F4A-8BB4-78411BDD3427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D95355-341A-0C44-A538-7292F4397BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{A3D3D9B9-1222-064C-8C08-4268FE22CEC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1501529689269149701</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Approx. throughput time </t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1511639901791477765</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF066A-2E45-AC43-B3AB-0F1423AB1715}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1403,6 +1406,34 @@
         <v>42</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11">
+        <v>44657</v>
+      </c>
+      <c r="C30" s="1">
+        <v>25626</v>
+      </c>
+      <c r="D30" s="12">
+        <f>C30-C29</f>
+        <v>789</v>
+      </c>
+      <c r="E30" s="1">
+        <v>19624</v>
+      </c>
+      <c r="F30" s="12">
+        <f>E30-E29</f>
+        <v>1475</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/registration_status.xlsx
+++ b/registration_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gamba/Code/ua-refugees-ch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D95355-341A-0C44-A538-7292F4397BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0E5072-9349-884F-B446-2F8D5D2B043C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{A3D3D9B9-1222-064C-8C08-4268FE22CEC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1501529689269149701</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>https://twitter.com/SEMIGRATION/status/1511639901791477765</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1512383284533153793</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SEMIGRATION/status/1512005952358293513</t>
   </si>
 </sst>
 </file>
@@ -576,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF066A-2E45-AC43-B3AB-0F1423AB1715}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1434,6 +1440,62 @@
         <v>45</v>
       </c>
     </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="11">
+        <v>44658</v>
+      </c>
+      <c r="C31" s="1">
+        <v>26482</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" ref="D31:D32" si="3">C31-C30</f>
+        <v>856</v>
+      </c>
+      <c r="E31" s="1">
+        <v>21108</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" ref="F31:F32" si="4">E31-E30</f>
+        <v>1484</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44659</v>
+      </c>
+      <c r="C32" s="1">
+        <v>26717</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="E32" s="1">
+        <v>22119</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="4"/>
+        <v>1011</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
